--- a/data/coded_segments/zm_4_3.xlsx
+++ b/data/coded_segments/zm_4_3.xlsx
@@ -1,25 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26606"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11015"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Whiting/Repositories/amr-db/data/coded_segments_rename/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmamendelsohn/r_projects/amr-db/data/coded_segments/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CDDE5E33-C035-B845-9B5E-B49563950138}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17620"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -2357,7 +2353,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2507,10 +2503,13 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2533,7 +2532,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -2545,7 +2544,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -2562,9 +2561,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -2592,14 +2591,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -2627,6 +2643,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2778,7 +2811,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M263"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
@@ -2836,7 +2869,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="70" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="75" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>13</v>
       </c>
@@ -5665,7 +5698,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
         <v>13</v>
       </c>
@@ -5829,7 +5862,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="56" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" ht="60" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
         <v>13</v>
       </c>
@@ -7633,7 +7666,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="119" spans="1:13" ht="70" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:13" ht="75" x14ac:dyDescent="0.2">
       <c r="A119" s="6" t="s">
         <v>13</v>
       </c>
@@ -7674,7 +7707,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="120" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A120" s="6" t="s">
         <v>13</v>
       </c>
@@ -7756,7 +7789,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="122" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A122" s="6" t="s">
         <v>13</v>
       </c>
@@ -8207,7 +8240,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="133" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A133" s="6" t="s">
         <v>13</v>
       </c>
@@ -8289,7 +8322,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="135" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A135" s="6" t="s">
         <v>13</v>
       </c>
@@ -8330,7 +8363,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="136" spans="1:13" ht="56" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:13" ht="60" x14ac:dyDescent="0.2">
       <c r="A136" s="6" t="s">
         <v>13</v>
       </c>
@@ -8371,7 +8404,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="137" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A137" s="6" t="s">
         <v>13</v>
       </c>
@@ -8412,7 +8445,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="138" spans="1:13" ht="56" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:13" ht="60" x14ac:dyDescent="0.2">
       <c r="A138" s="6" t="s">
         <v>13</v>
       </c>
@@ -8453,7 +8486,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="139" spans="1:13" ht="56" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:13" ht="60" x14ac:dyDescent="0.2">
       <c r="A139" s="6" t="s">
         <v>13</v>
       </c>
@@ -8576,7 +8609,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="142" spans="1:13" ht="56" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:13" ht="60" x14ac:dyDescent="0.2">
       <c r="A142" s="6" t="s">
         <v>13</v>
       </c>
@@ -8617,7 +8650,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="143" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A143" s="6" t="s">
         <v>13</v>
       </c>
@@ -8945,7 +8978,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="151" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A151" s="6" t="s">
         <v>13</v>
       </c>
@@ -9232,7 +9265,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="158" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A158" s="6" t="s">
         <v>13</v>
       </c>
@@ -10585,7 +10618,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="191" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A191" s="6" t="s">
         <v>13</v>
       </c>
@@ -10626,7 +10659,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="192" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A192" s="6" t="s">
         <v>13</v>
       </c>
@@ -10749,7 +10782,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="195" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A195" s="6" t="s">
         <v>13</v>
       </c>
@@ -10831,7 +10864,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="197" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A197" s="6" t="s">
         <v>13</v>
       </c>
@@ -10913,7 +10946,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="199" spans="1:13" ht="70" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:13" ht="75" x14ac:dyDescent="0.2">
       <c r="A199" s="6" t="s">
         <v>13</v>
       </c>
@@ -10954,7 +10987,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="200" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A200" s="6" t="s">
         <v>13</v>
       </c>
@@ -10995,7 +11028,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="201" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A201" s="6" t="s">
         <v>13</v>
       </c>
@@ -11159,7 +11192,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="205" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A205" s="6" t="s">
         <v>13</v>
       </c>
@@ -11446,7 +11479,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="212" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A212" s="6" t="s">
         <v>13</v>
       </c>
@@ -11733,7 +11766,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="219" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A219" s="6" t="s">
         <v>13</v>
       </c>
@@ -11938,7 +11971,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="224" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A224" s="6" t="s">
         <v>13</v>
       </c>
@@ -11979,7 +12012,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="225" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A225" s="6" t="s">
         <v>13</v>
       </c>
@@ -12020,7 +12053,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="226" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A226" s="6" t="s">
         <v>13</v>
       </c>
@@ -12061,7 +12094,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="227" spans="1:13" ht="70" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:13" ht="75" x14ac:dyDescent="0.2">
       <c r="A227" s="6" t="s">
         <v>13</v>
       </c>
@@ -12225,7 +12258,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="231" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A231" s="6" t="s">
         <v>13</v>
       </c>
@@ -12512,7 +12545,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="238" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A238" s="6" t="s">
         <v>13</v>
       </c>
@@ -13209,7 +13242,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="255" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A255" s="6" t="s">
         <v>13</v>
       </c>
@@ -13455,7 +13488,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="261" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A261" s="6" t="s">
         <v>13</v>
       </c>
@@ -13496,7 +13529,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="262" spans="1:13" ht="56" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:13" ht="60" x14ac:dyDescent="0.2">
       <c r="A262" s="6" t="s">
         <v>13</v>
       </c>
